--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UMM\New folder 7\PEMBELAJARAN MESIN\PROJJECT\GITHUB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73c546b5fb4bb1ad/Documents/GitHub/Tugas_Praktikum_023_043/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEA07243-D07E-40A6-802E-10224AB28C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{FEA07243-D07E-40A6-802E-10224AB28C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B38356-FCD7-4AC1-9C55-69B9013EB713}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF710B30-3C6A-4C29-ACF0-BDC439F4CBFA}"/>
+    <workbookView xWindow="4620" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{EF710B30-3C6A-4C29-ACF0-BDC439F4CBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Error</t>
   </si>
   <si>
-    <t>Model Resnet50</t>
-  </si>
-  <si>
-    <t>Evaluasi Model Resnet50</t>
-  </si>
-  <si>
     <t>Modelling menggunakan Algoritma Transfer Learning DenseNet169</t>
   </si>
   <si>
@@ -110,6 +104,27 @@
   </si>
   <si>
     <t>Muhammad Marlianur</t>
+  </si>
+  <si>
+    <t>14 Des</t>
+  </si>
+  <si>
+    <t>28 Des</t>
+  </si>
+  <si>
+    <t>30 Okt</t>
+  </si>
+  <si>
+    <t>Evaluasi Model ResNet152V2</t>
+  </si>
+  <si>
+    <t>Model ResNet152V2</t>
+  </si>
+  <si>
+    <t>7 Des</t>
+  </si>
+  <si>
+    <t>21 Des</t>
   </si>
 </sst>
 </file>
@@ -195,21 +210,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B36693B-FB27-4005-9006-1FD65221C3E7}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,13 +573,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -568,218 +593,266 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12">
+        <v>44507</v>
+      </c>
+      <c r="E2" s="12">
+        <v>44507</v>
+      </c>
       <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12">
+        <v>44507</v>
+      </c>
+      <c r="E3" s="12">
+        <v>44507</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12">
+        <v>44507</v>
+      </c>
+      <c r="E4" s="12">
+        <v>44507</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12">
+        <v>44507</v>
+      </c>
+      <c r="E5" s="12">
+        <v>44507</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="E12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
